--- a/lpagg/resources_load/DOE Profile TWE.xlsx
+++ b/lpagg/resources_load/DOE Profile TWE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trnsys17\Work\futureSuN\AP4\P2H_Quartier\Load\Typtage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nettelstroth\Documents\07 Python\LPagg\lpagg\resources_load\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="0" windowWidth="24000" windowHeight="10320" tabRatio="679" activeTab="1"/>
+    <workbookView xWindow="1125" yWindow="0" windowWidth="24000" windowHeight="10320" tabRatio="679"/>
   </bookViews>
   <sheets>
     <sheet name="G1G" sheetId="11" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
   <si>
     <t>Winter</t>
   </si>
@@ -61,6 +61,9 @@
   <si>
     <t>Anpassungen: Profil von Sonntag auf 0 gesetzt</t>
   </si>
+  <si>
+    <t>G4G</t>
+  </si>
 </sst>
 </file>
 
@@ -70,7 +73,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="h:mm"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -320,13 +323,13 @@
     <xf numFmtId="165" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="20" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="20" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="Comma 2" xfId="2"/>
@@ -632,7 +635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A27"/>
     </sheetView>
   </sheetViews>
@@ -650,21 +653,21 @@
       <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17" t="s">
+      <c r="B2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -697,28 +700,28 @@
       <c r="J3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="18"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="18"/>
-      <c r="AF3" s="18"/>
-      <c r="AG3" s="18"/>
-      <c r="AH3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17"/>
+      <c r="AG3" s="17"/>
+      <c r="AH3" s="18"/>
     </row>
     <row r="4" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
@@ -752,28 +755,28 @@
         <v>0</v>
       </c>
       <c r="L4" s="13"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="20"/>
-      <c r="AH4" s="20"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="19"/>
     </row>
     <row r="5" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
@@ -808,28 +811,28 @@
         <v>0</v>
       </c>
       <c r="L5" s="13"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="20"/>
-      <c r="AD5" s="20"/>
-      <c r="AE5" s="20"/>
-      <c r="AF5" s="20"/>
-      <c r="AG5" s="20"/>
-      <c r="AH5" s="20"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
     </row>
     <row r="6" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
@@ -1695,7 +1698,7 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
+      <c r="A32" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1717,8 +1720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1733,23 +1736,23 @@
     </row>
     <row r="2" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1782,26 +1785,26 @@
       <c r="J3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="18"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="18"/>
     </row>
     <row r="4" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
@@ -1834,26 +1837,26 @@
       <c r="J4" s="16">
         <v>0</v>
       </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
     </row>
     <row r="5" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
@@ -1887,26 +1890,26 @@
       <c r="J5" s="16">
         <v>0</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="20"/>
-      <c r="AD5" s="20"/>
-      <c r="AE5" s="20"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
     </row>
     <row r="6" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
